--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pdgfb-Art1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pdgfb-Art1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>49.195614</v>
+        <v>47.25342666666666</v>
       </c>
       <c r="H2">
-        <v>147.586842</v>
+        <v>141.76028</v>
       </c>
       <c r="I2">
-        <v>0.8724243622956617</v>
+        <v>0.7256581002375004</v>
       </c>
       <c r="J2">
-        <v>0.8724243622956616</v>
+        <v>0.7256581002375005</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,33 +558,33 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1748566666666667</v>
+        <v>0.2388073333333333</v>
       </c>
       <c r="N2">
-        <v>0.52457</v>
+        <v>0.716422</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9047137371081621</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9047137371081621</v>
       </c>
       <c r="Q2">
-        <v>8.602181078659999</v>
+        <v>11.28446481312889</v>
       </c>
       <c r="R2">
-        <v>77.41962970793999</v>
+        <v>101.56018331816</v>
       </c>
       <c r="S2">
-        <v>0.8724243622956617</v>
+        <v>0.6565128517286782</v>
       </c>
       <c r="T2">
-        <v>0.8724243622956616</v>
+        <v>0.6565128517286783</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>47.25342666666666</v>
+      </c>
+      <c r="H3">
+        <v>141.76028</v>
+      </c>
+      <c r="I3">
+        <v>0.7256581002375004</v>
+      </c>
+      <c r="J3">
+        <v>0.7256581002375005</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G3">
-        <v>0.05229733333333333</v>
-      </c>
-      <c r="H3">
-        <v>0.156892</v>
-      </c>
-      <c r="I3">
-        <v>0.0009274295810821058</v>
-      </c>
-      <c r="J3">
-        <v>0.0009274295810821058</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
       <c r="M3">
-        <v>0.1748566666666667</v>
+        <v>0.02515166666666667</v>
       </c>
       <c r="N3">
-        <v>0.52457</v>
+        <v>0.07545499999999999</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.095286262891838</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.095286262891838</v>
       </c>
       <c r="Q3">
-        <v>0.009144537382222222</v>
+        <v>1.188502436377778</v>
       </c>
       <c r="R3">
-        <v>0.08230083644</v>
+        <v>10.6965219274</v>
       </c>
       <c r="S3">
-        <v>0.0009274295810821058</v>
+        <v>0.0691452485088222</v>
       </c>
       <c r="T3">
-        <v>0.0009274295810821058</v>
+        <v>0.06914524850882221</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -658,22 +658,22 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.896931</v>
+        <v>0.05229733333333333</v>
       </c>
       <c r="H4">
-        <v>5.690793</v>
+        <v>0.156892</v>
       </c>
       <c r="I4">
-        <v>0.03363976345521111</v>
+        <v>0.0008031160114981568</v>
       </c>
       <c r="J4">
-        <v>0.0336397634552111</v>
+        <v>0.0008031160114981569</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,33 +682,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1748566666666667</v>
+        <v>0.2388073333333333</v>
       </c>
       <c r="N4">
-        <v>0.52457</v>
+        <v>0.716422</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9047137371081621</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9047137371081621</v>
       </c>
       <c r="Q4">
-        <v>0.3316910315566667</v>
+        <v>0.01248898671377778</v>
       </c>
       <c r="R4">
-        <v>2.98521928401</v>
+        <v>0.112400880424</v>
       </c>
       <c r="S4">
-        <v>0.03363976345521111</v>
+        <v>0.0007265900880938991</v>
       </c>
       <c r="T4">
-        <v>0.0336397634552111</v>
+        <v>0.0007265900880938992</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>2.197513666666667</v>
+        <v>0.05229733333333333</v>
       </c>
       <c r="H5">
-        <v>6.592541</v>
+        <v>0.156892</v>
       </c>
       <c r="I5">
-        <v>0.03897023135594298</v>
+        <v>0.0008031160114981568</v>
       </c>
       <c r="J5">
-        <v>0.03897023135594298</v>
+        <v>0.0008031160114981569</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1748566666666667</v>
+        <v>0.02515166666666667</v>
       </c>
       <c r="N5">
-        <v>0.52457</v>
+        <v>0.07545499999999999</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.095286262891838</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.095286262891838</v>
       </c>
       <c r="Q5">
-        <v>0.3842499147077778</v>
+        <v>0.001315365095555556</v>
       </c>
       <c r="R5">
-        <v>3.45824923237</v>
+        <v>0.01183828586</v>
       </c>
       <c r="S5">
-        <v>0.03897023135594298</v>
+        <v>7.652592340425776E-05</v>
       </c>
       <c r="T5">
-        <v>0.03897023135594298</v>
+        <v>7.652592340425776E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.047190333333333</v>
+        <v>6.996562666666667</v>
       </c>
       <c r="H6">
-        <v>9.141571000000001</v>
+        <v>20.989688</v>
       </c>
       <c r="I6">
-        <v>0.05403821331210213</v>
+        <v>0.1074443216298519</v>
       </c>
       <c r="J6">
-        <v>0.05403821331210213</v>
+        <v>0.1074443216298519</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,338 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1748566666666667</v>
+        <v>0.2388073333333333</v>
       </c>
       <c r="N6">
-        <v>0.52457</v>
+        <v>0.716422</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.9047137371081621</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.9047137371081621</v>
       </c>
       <c r="Q6">
-        <v>0.5328215443855555</v>
+        <v>1.670830472926222</v>
       </c>
       <c r="R6">
-        <v>4.79539389947</v>
+        <v>15.037474256336</v>
       </c>
       <c r="S6">
-        <v>0.05403821331210213</v>
+        <v>0.09720635375279464</v>
       </c>
       <c r="T6">
-        <v>0.05403821331210213</v>
+        <v>0.09720635375279466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>6.996562666666667</v>
+      </c>
+      <c r="H7">
+        <v>20.989688</v>
+      </c>
+      <c r="I7">
+        <v>0.1074443216298519</v>
+      </c>
+      <c r="J7">
+        <v>0.1074443216298519</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.02515166666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.07545499999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.095286262891838</v>
+      </c>
+      <c r="P7">
+        <v>0.095286262891838</v>
+      </c>
+      <c r="Q7">
+        <v>0.1759752120044444</v>
+      </c>
+      <c r="R7">
+        <v>1.58377690804</v>
+      </c>
+      <c r="S7">
+        <v>0.01023796787705726</v>
+      </c>
+      <c r="T7">
+        <v>0.01023796787705727</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.605199666666667</v>
+      </c>
+      <c r="H8">
+        <v>7.815599000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.0400073470689964</v>
+      </c>
+      <c r="J8">
+        <v>0.0400073470689964</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.2388073333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.716422</v>
+      </c>
+      <c r="O8">
+        <v>0.9047137371081621</v>
+      </c>
+      <c r="P8">
+        <v>0.9047137371081621</v>
+      </c>
+      <c r="Q8">
+        <v>0.6221407851975557</v>
+      </c>
+      <c r="R8">
+        <v>5.599267066778</v>
+      </c>
+      <c r="S8">
+        <v>0.03619519647857501</v>
+      </c>
+      <c r="T8">
+        <v>0.03619519647857501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.605199666666667</v>
+      </c>
+      <c r="H9">
+        <v>7.815599000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.0400073470689964</v>
+      </c>
+      <c r="J9">
+        <v>0.0400073470689964</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.02515166666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.07545499999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.095286262891838</v>
+      </c>
+      <c r="P9">
+        <v>0.095286262891838</v>
+      </c>
+      <c r="Q9">
+        <v>0.06552511361611112</v>
+      </c>
+      <c r="R9">
+        <v>0.589726022545</v>
+      </c>
+      <c r="S9">
+        <v>0.003812150590421396</v>
+      </c>
+      <c r="T9">
+        <v>0.003812150590421396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>8.210544666666665</v>
+      </c>
+      <c r="H10">
+        <v>24.631634</v>
+      </c>
+      <c r="I10">
+        <v>0.126087115052153</v>
+      </c>
+      <c r="J10">
+        <v>0.126087115052153</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.2388073333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.716422</v>
+      </c>
+      <c r="O10">
+        <v>0.9047137371081621</v>
+      </c>
+      <c r="P10">
+        <v>0.9047137371081621</v>
+      </c>
+      <c r="Q10">
+        <v>1.960738277060889</v>
+      </c>
+      <c r="R10">
+        <v>17.646644493548</v>
+      </c>
+      <c r="S10">
+        <v>0.1140727450600201</v>
+      </c>
+      <c r="T10">
+        <v>0.1140727450600202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>8.210544666666665</v>
+      </c>
+      <c r="H11">
+        <v>24.631634</v>
+      </c>
+      <c r="I11">
+        <v>0.126087115052153</v>
+      </c>
+      <c r="J11">
+        <v>0.126087115052153</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.02515166666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.07545499999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.095286262891838</v>
+      </c>
+      <c r="P11">
+        <v>0.095286262891838</v>
+      </c>
+      <c r="Q11">
+        <v>0.2065088826077777</v>
+      </c>
+      <c r="R11">
+        <v>1.85857994347</v>
+      </c>
+      <c r="S11">
+        <v>0.01201436999213288</v>
+      </c>
+      <c r="T11">
+        <v>0.01201436999213288</v>
       </c>
     </row>
   </sheetData>
